--- a/Datos informalidad/Output/Datos RIED/datos_grafico_informales_3series.xlsx
+++ b/Datos informalidad/Output/Datos RIED/datos_grafico_informales_3series.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,8 +415,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0.221</v>
+      <c r="D3">
+        <v>0.076</v>
       </c>
       <c r="E3">
         <v>0.259</v>
@@ -424,33 +424,30 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40238</v>
+        <v>40210</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.217</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0.082</v>
+        <v>0.076</v>
       </c>
       <c r="E4">
-        <v>0.27</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40269</v>
+        <v>40238</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.215</v>
+        <v>0.217</v>
       </c>
       <c r="D5">
-        <v>0.072</v>
+        <v>0.082</v>
       </c>
       <c r="E5">
         <v>0.27</v>
@@ -458,169 +455,169 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40299</v>
+        <v>40269</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0.203</v>
+        <v>0.215</v>
       </c>
       <c r="D6">
-        <v>0.06900000000000001</v>
+        <v>0.072</v>
       </c>
       <c r="E6">
-        <v>0.266</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40330</v>
+        <v>40299</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>0.198</v>
+        <v>0.203</v>
       </c>
       <c r="D7">
-        <v>0.074</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E7">
-        <v>0.292</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40360</v>
+        <v>40330</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.195</v>
+        <v>0.198</v>
       </c>
       <c r="D8">
-        <v>0.079</v>
+        <v>0.074</v>
       </c>
       <c r="E8">
-        <v>0.287</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40391</v>
+        <v>40360</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="D9">
-        <v>0.08500000000000001</v>
+        <v>0.079</v>
       </c>
       <c r="E9">
-        <v>0.283</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40422</v>
+        <v>40391</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.204</v>
+        <v>0.19</v>
       </c>
       <c r="D10">
-        <v>0.081</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E10">
-        <v>0.265</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40452</v>
+        <v>40422</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0.204</v>
       </c>
       <c r="D11">
-        <v>0.078</v>
+        <v>0.081</v>
       </c>
       <c r="E11">
-        <v>0.266</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40483</v>
+        <v>40452</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>0.208</v>
+        <v>0.204</v>
       </c>
       <c r="D12">
-        <v>0.076</v>
+        <v>0.078</v>
       </c>
       <c r="E12">
-        <v>0.276</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40513</v>
+        <v>40483</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>0.21</v>
+        <v>0.208</v>
       </c>
       <c r="D13">
-        <v>0.072</v>
+        <v>0.076</v>
       </c>
       <c r="E13">
-        <v>0.27</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40544</v>
+        <v>40513</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>0.231</v>
+        <v>0.21</v>
       </c>
       <c r="D14">
         <v>0.072</v>
       </c>
       <c r="E14">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40575</v>
+        <v>40544</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.227</v>
+        <v>0.231</v>
       </c>
       <c r="D15">
-        <v>0.06800000000000001</v>
+        <v>0.072</v>
       </c>
       <c r="E15">
         <v>0.272</v>
@@ -628,1325 +625,1325 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40603</v>
+        <v>40575</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="D16">
-        <v>0.067</v>
+        <v>0.06800000000000001</v>
       </c>
       <c r="E16">
-        <v>0.287</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40634</v>
+        <v>40603</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0.214</v>
+        <v>0.222</v>
       </c>
       <c r="D17">
-        <v>0.07000000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="E17">
-        <v>0.289</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40664</v>
+        <v>40634</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>0.215</v>
+        <v>0.214</v>
       </c>
       <c r="D18">
-        <v>0.078</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E18">
-        <v>0.3</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40695</v>
+        <v>40664</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.206</v>
+        <v>0.215</v>
       </c>
       <c r="D19">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="E19">
-        <v>0.291</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40725</v>
+        <v>40695</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.206</v>
       </c>
       <c r="D20">
-        <v>0.074</v>
+        <v>0.079</v>
       </c>
       <c r="E20">
-        <v>0.304</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40756</v>
+        <v>40725</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0.182</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.067</v>
+        <v>0.074</v>
       </c>
       <c r="E21">
-        <v>0.302</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40787</v>
+        <v>40756</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0.189</v>
+        <v>0.182</v>
       </c>
       <c r="D22">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="E22">
-        <v>0.307</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40817</v>
+        <v>40787</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0.186</v>
+        <v>0.189</v>
       </c>
       <c r="D23">
-        <v>0.061</v>
+        <v>0.066</v>
       </c>
       <c r="E23">
-        <v>0.28</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40848</v>
+        <v>40817</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0.183</v>
+        <v>0.186</v>
       </c>
       <c r="D24">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="E24">
-        <v>0.279</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40878</v>
+        <v>40848</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>0.179</v>
+        <v>0.183</v>
       </c>
       <c r="D25">
-        <v>0.064</v>
+        <v>0.058</v>
       </c>
       <c r="E25">
-        <v>0.266</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40909</v>
+        <v>40878</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0.189</v>
+        <v>0.179</v>
       </c>
       <c r="D26">
-        <v>0.078</v>
+        <v>0.064</v>
       </c>
       <c r="E26">
-        <v>0.276</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40940</v>
+        <v>40909</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.189</v>
       </c>
       <c r="D27">
-        <v>0.08500000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="E27">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40969</v>
+        <v>40940</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0.192</v>
+        <v>0.2</v>
       </c>
       <c r="D28">
-        <v>0.074</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E28">
-        <v>0.297</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41000</v>
+        <v>40969</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>0.196</v>
+        <v>0.192</v>
       </c>
       <c r="D29">
-        <v>0.07099999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="E29">
-        <v>0.296</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41030</v>
+        <v>41000</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>0.196</v>
       </c>
       <c r="D30">
-        <v>0.064</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E30">
-        <v>0.304</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41061</v>
+        <v>41030</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>0.187</v>
+        <v>0.196</v>
       </c>
       <c r="D31">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="E31">
-        <v>0.299</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41091</v>
+        <v>41061</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>0.187</v>
       </c>
       <c r="D32">
-        <v>0.072</v>
+        <v>0.067</v>
       </c>
       <c r="E32">
-        <v>0.297</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41122</v>
+        <v>41091</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>0.182</v>
+        <v>0.187</v>
       </c>
       <c r="D33">
-        <v>0.07000000000000001</v>
+        <v>0.072</v>
       </c>
       <c r="E33">
-        <v>0.296</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41153</v>
+        <v>41122</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>0.182</v>
       </c>
       <c r="D34">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E34">
-        <v>0.292</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41183</v>
+        <v>41153</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>0.162</v>
+        <v>0.182</v>
       </c>
       <c r="D35">
-        <v>0.056</v>
+        <v>0.065</v>
       </c>
       <c r="E35">
-        <v>0.304</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41214</v>
+        <v>41183</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>0.145</v>
+        <v>0.162</v>
       </c>
       <c r="D36">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="E36">
-        <v>0.298</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41244</v>
+        <v>41214</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>0.161</v>
+        <v>0.145</v>
       </c>
       <c r="D37">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="E37">
-        <v>0.28</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41275</v>
+        <v>41244</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>0.174</v>
+        <v>0.161</v>
       </c>
       <c r="D38">
-        <v>0.052</v>
+        <v>0.055</v>
       </c>
       <c r="E38">
-        <v>0.274</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41306</v>
+        <v>41275</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.18</v>
+        <v>0.174</v>
       </c>
       <c r="D39">
-        <v>0.046</v>
+        <v>0.052</v>
       </c>
       <c r="E39">
-        <v>0.271</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41334</v>
+        <v>41306</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>0.199</v>
+        <v>0.18</v>
       </c>
       <c r="D40">
-        <v>0.104</v>
+        <v>0.046</v>
       </c>
       <c r="E40">
-        <v>0.285</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41365</v>
+        <v>41334</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>0.201</v>
+        <v>0.199</v>
       </c>
       <c r="D41">
-        <v>0.091</v>
+        <v>0.104</v>
       </c>
       <c r="E41">
-        <v>0.279</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41395</v>
+        <v>41365</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.21</v>
+        <v>0.201</v>
       </c>
       <c r="D42">
-        <v>0.1</v>
+        <v>0.091</v>
       </c>
       <c r="E42">
-        <v>0.266</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41426</v>
+        <v>41395</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.214</v>
+        <v>0.21</v>
       </c>
       <c r="D43">
-        <v>0.097</v>
+        <v>0.1</v>
       </c>
       <c r="E43">
-        <v>0.26</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41456</v>
+        <v>41426</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="D44">
-        <v>0.11</v>
+        <v>0.097</v>
       </c>
       <c r="E44">
-        <v>0.263</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41487</v>
+        <v>41456</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.204</v>
+        <v>0.2</v>
       </c>
       <c r="D45">
-        <v>0.123</v>
+        <v>0.11</v>
       </c>
       <c r="E45">
-        <v>0.264</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41518</v>
+        <v>41487</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.215</v>
+        <v>0.204</v>
       </c>
       <c r="D46">
-        <v>0.144</v>
+        <v>0.123</v>
       </c>
       <c r="E46">
-        <v>0.255</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41548</v>
+        <v>41518</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.227</v>
+        <v>0.215</v>
       </c>
       <c r="D47">
         <v>0.144</v>
       </c>
       <c r="E47">
-        <v>0.256</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41579</v>
+        <v>41548</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0.237</v>
+        <v>0.227</v>
       </c>
       <c r="D48">
-        <v>0.124</v>
+        <v>0.144</v>
       </c>
       <c r="E48">
-        <v>0.266</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41609</v>
+        <v>41579</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>0.234</v>
+        <v>0.237</v>
       </c>
       <c r="D49">
-        <v>0.116</v>
+        <v>0.124</v>
       </c>
       <c r="E49">
-        <v>0.276</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41640</v>
+        <v>41609</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>0.214</v>
+        <v>0.234</v>
       </c>
       <c r="D50">
-        <v>0.131</v>
+        <v>0.116</v>
       </c>
       <c r="E50">
-        <v>0.268</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.199</v>
+        <v>0.214</v>
       </c>
       <c r="D51">
-        <v>0.128</v>
+        <v>0.131</v>
       </c>
       <c r="E51">
-        <v>0.283</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>0.192</v>
+        <v>0.199</v>
       </c>
       <c r="D52">
-        <v>0.118</v>
+        <v>0.128</v>
       </c>
       <c r="E52">
-        <v>0.307</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>0.198</v>
+        <v>0.192</v>
       </c>
       <c r="D53">
-        <v>0.128</v>
+        <v>0.118</v>
       </c>
       <c r="E53">
-        <v>0.328</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>0.199</v>
+        <v>0.198</v>
       </c>
       <c r="D54">
-        <v>0.144</v>
+        <v>0.128</v>
       </c>
       <c r="E54">
-        <v>0.32</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>0.203</v>
+        <v>0.199</v>
       </c>
       <c r="D55">
-        <v>0.142</v>
+        <v>0.144</v>
       </c>
       <c r="E55">
-        <v>0.313</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>0.211</v>
+        <v>0.203</v>
       </c>
       <c r="D56">
-        <v>0.138</v>
+        <v>0.142</v>
       </c>
       <c r="E56">
-        <v>0.309</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>0.201</v>
+        <v>0.211</v>
       </c>
       <c r="D57">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="E57">
-        <v>0.298</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>0.196</v>
+        <v>0.201</v>
       </c>
       <c r="D58">
-        <v>0.137</v>
+        <v>0.14</v>
       </c>
       <c r="E58">
-        <v>0.302</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>0.196</v>
       </c>
       <c r="D59">
-        <v>0.111</v>
+        <v>0.137</v>
       </c>
       <c r="E59">
-        <v>0.305</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>0.182</v>
+        <v>0.196</v>
       </c>
       <c r="D60">
-        <v>0.091</v>
+        <v>0.111</v>
       </c>
       <c r="E60">
-        <v>0.315</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61">
-        <v>0.175</v>
+        <v>0.182</v>
       </c>
       <c r="D61">
-        <v>0.08400000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="E61">
-        <v>0.308</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C62">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="D62">
-        <v>0.092</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E62">
-        <v>0.286</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.168</v>
+        <v>0.17</v>
       </c>
       <c r="D63">
-        <v>0.08400000000000001</v>
+        <v>0.092</v>
       </c>
       <c r="E63">
-        <v>0.303</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>0.161</v>
+        <v>0.168</v>
       </c>
       <c r="D64">
-        <v>0.091</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E64">
-        <v>0.296</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>0.149</v>
+        <v>0.161</v>
       </c>
       <c r="D65">
-        <v>0.076</v>
+        <v>0.091</v>
       </c>
       <c r="E65">
-        <v>0.315</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>0.166</v>
+        <v>0.149</v>
       </c>
       <c r="D66">
-        <v>0.088</v>
+        <v>0.076</v>
       </c>
       <c r="E66">
-        <v>0.305</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>0.176</v>
+        <v>0.166</v>
       </c>
       <c r="D67">
-        <v>0.091</v>
+        <v>0.088</v>
       </c>
       <c r="E67">
-        <v>0.318</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.187</v>
+        <v>0.176</v>
       </c>
       <c r="D68">
-        <v>0.112</v>
+        <v>0.091</v>
       </c>
       <c r="E68">
-        <v>0.302</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>0.182</v>
+        <v>0.187</v>
       </c>
       <c r="D69">
-        <v>0.123</v>
+        <v>0.112</v>
       </c>
       <c r="E69">
-        <v>0.307</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0.177</v>
+        <v>0.182</v>
       </c>
       <c r="D70">
-        <v>0.154</v>
+        <v>0.123</v>
       </c>
       <c r="E70">
-        <v>0.288</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.163</v>
+        <v>0.177</v>
       </c>
       <c r="D71">
-        <v>0.148</v>
+        <v>0.154</v>
       </c>
       <c r="E71">
-        <v>0.287</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.167</v>
+        <v>0.163</v>
       </c>
       <c r="D72">
-        <v>0.164</v>
+        <v>0.148</v>
       </c>
       <c r="E72">
-        <v>0.269</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>0.185</v>
+        <v>0.167</v>
       </c>
       <c r="D73">
-        <v>0.171</v>
+        <v>0.164</v>
       </c>
       <c r="E73">
-        <v>0.248</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="D74">
-        <v>0.169</v>
+        <v>0.171</v>
       </c>
       <c r="E74">
-        <v>0.253</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="D75">
-        <v>0.171</v>
+        <v>0.169</v>
       </c>
       <c r="E75">
-        <v>0.251</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>0.161</v>
+        <v>0.175</v>
       </c>
       <c r="D76">
-        <v>0.184</v>
+        <v>0.171</v>
       </c>
       <c r="E76">
-        <v>0.269</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="D77">
-        <v>0.195</v>
+        <v>0.184</v>
       </c>
       <c r="E77">
-        <v>0.279</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>0.168</v>
+        <v>0.16</v>
       </c>
       <c r="D78">
         <v>0.195</v>
       </c>
       <c r="E78">
-        <v>0.29</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>0.181</v>
+        <v>0.168</v>
       </c>
       <c r="D79">
-        <v>0.183</v>
+        <v>0.195</v>
       </c>
       <c r="E79">
-        <v>0.297</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>0.187</v>
+        <v>0.181</v>
       </c>
       <c r="D80">
-        <v>0.19</v>
+        <v>0.183</v>
       </c>
       <c r="E80">
-        <v>0.292</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
-        <v>0.198</v>
+        <v>0.187</v>
       </c>
       <c r="D81">
-        <v>0.194</v>
+        <v>0.19</v>
       </c>
       <c r="E81">
-        <v>0.286</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>0.185</v>
+        <v>0.198</v>
       </c>
       <c r="D82">
-        <v>0.227</v>
+        <v>0.194</v>
       </c>
       <c r="E82">
-        <v>0.272</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>0.178</v>
+        <v>0.185</v>
       </c>
       <c r="D83">
-        <v>0.221</v>
+        <v>0.227</v>
       </c>
       <c r="E83">
-        <v>0.275</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>0.161</v>
+        <v>0.178</v>
       </c>
       <c r="D84">
-        <v>0.218</v>
+        <v>0.221</v>
       </c>
       <c r="E84">
-        <v>0.282</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>0.167</v>
+        <v>0.161</v>
       </c>
       <c r="D85">
-        <v>0.201</v>
+        <v>0.218</v>
       </c>
       <c r="E85">
-        <v>0.295</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C86">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="D86">
         <v>0.201</v>
       </c>
       <c r="E86">
-        <v>0.3</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>0.171</v>
+        <v>0.168</v>
       </c>
       <c r="D87">
-        <v>0.214</v>
+        <v>0.201</v>
       </c>
       <c r="E87">
-        <v>0.303</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>0.164</v>
+        <v>0.171</v>
       </c>
       <c r="D88">
-        <v>0.178</v>
+        <v>0.214</v>
       </c>
       <c r="E88">
-        <v>0.307</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>0.182</v>
+        <v>0.164</v>
       </c>
       <c r="D89">
-        <v>0.196</v>
+        <v>0.178</v>
       </c>
       <c r="E89">
-        <v>0.281</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>0.186</v>
+        <v>0.182</v>
       </c>
       <c r="D90">
-        <v>0.186</v>
+        <v>0.196</v>
       </c>
       <c r="E90">
-        <v>0.275</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>0.196</v>
+        <v>0.186</v>
       </c>
       <c r="D91">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="E91">
-        <v>0.278</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>0.214</v>
+        <v>0.196</v>
       </c>
       <c r="D92">
-        <v>0.199</v>
+        <v>0.19</v>
       </c>
       <c r="E92">
-        <v>0.286</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>0.209</v>
+        <v>0.214</v>
       </c>
       <c r="D93">
-        <v>0.22</v>
+        <v>0.199</v>
       </c>
       <c r="E93">
         <v>0.286</v>
@@ -1954,705 +1951,736 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.231</v>
+        <v>0.209</v>
       </c>
       <c r="D94">
-        <v>0.238</v>
+        <v>0.22</v>
       </c>
       <c r="E94">
-        <v>0.295</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95">
+        <v>0.231</v>
+      </c>
+      <c r="D95">
         <v>0.238</v>
       </c>
-      <c r="D95">
-        <v>0.246</v>
-      </c>
       <c r="E95">
-        <v>0.298</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.264</v>
+        <v>0.238</v>
       </c>
       <c r="D96">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="E96">
-        <v>0.293</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>0.238</v>
+        <v>0.264</v>
       </c>
       <c r="D97">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="E97">
-        <v>0.301</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>0.225</v>
+        <v>0.238</v>
       </c>
       <c r="D98">
-        <v>0.276</v>
+        <v>0.29</v>
       </c>
       <c r="E98">
-        <v>0.299</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>0.213</v>
+        <v>0.225</v>
       </c>
       <c r="D99">
-        <v>0.29</v>
+        <v>0.276</v>
       </c>
       <c r="E99">
-        <v>0.305</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>0.226</v>
+        <v>0.213</v>
       </c>
       <c r="D100">
-        <v>0.301</v>
+        <v>0.29</v>
       </c>
       <c r="E100">
-        <v>0.289</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>0.23</v>
+        <v>0.226</v>
       </c>
       <c r="D101">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="E101">
-        <v>0.296</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>0.223</v>
+        <v>0.23</v>
       </c>
       <c r="D102">
-        <v>0.281</v>
+        <v>0.3</v>
       </c>
       <c r="E102">
-        <v>0.313</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103">
-        <v>0.23</v>
+        <v>0.223</v>
       </c>
       <c r="D103">
-        <v>0.274</v>
+        <v>0.281</v>
       </c>
       <c r="E103">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>0.228</v>
+        <v>0.23</v>
       </c>
       <c r="D104">
-        <v>0.268</v>
+        <v>0.274</v>
       </c>
       <c r="E104">
-        <v>0.301</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105">
-        <v>0.223</v>
+        <v>0.228</v>
       </c>
       <c r="D105">
-        <v>0.269</v>
+        <v>0.268</v>
       </c>
       <c r="E105">
-        <v>0.289</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>0.232</v>
+        <v>0.223</v>
       </c>
       <c r="D106">
-        <v>0.251</v>
+        <v>0.269</v>
       </c>
       <c r="E106">
-        <v>0.293</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="D107">
-        <v>0.27</v>
+        <v>0.251</v>
       </c>
       <c r="E107">
-        <v>0.294</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>0.229</v>
+        <v>0.234</v>
       </c>
       <c r="D108">
-        <v>0.254</v>
+        <v>0.27</v>
       </c>
       <c r="E108">
-        <v>0.29</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B109">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109">
-        <v>0.249</v>
+        <v>0.229</v>
       </c>
       <c r="D109">
-        <v>0.264</v>
+        <v>0.254</v>
       </c>
       <c r="E109">
-        <v>0.287</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C110">
-        <v>0.254</v>
+        <v>0.249</v>
       </c>
       <c r="D110">
-        <v>0.272</v>
+        <v>0.264</v>
       </c>
       <c r="E110">
-        <v>0.266</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>0.248</v>
+        <v>0.254</v>
       </c>
       <c r="D111">
-        <v>0.262</v>
+        <v>0.272</v>
       </c>
       <c r="E111">
-        <v>0.283</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>0.232</v>
+        <v>0.248</v>
       </c>
       <c r="D112">
-        <v>0.269</v>
+        <v>0.262</v>
       </c>
       <c r="E112">
-        <v>0.277</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>0.239</v>
+        <v>0.232</v>
       </c>
       <c r="D113">
-        <v>0.285</v>
+        <v>0.269</v>
       </c>
       <c r="E113">
-        <v>0.305</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>0.245</v>
+        <v>0.239</v>
       </c>
       <c r="D114">
-        <v>0.29</v>
+        <v>0.285</v>
       </c>
       <c r="E114">
-        <v>0.303</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>0.195</v>
+        <v>0.245</v>
       </c>
       <c r="D115">
-        <v>0.218</v>
+        <v>0.29</v>
       </c>
       <c r="E115">
-        <v>0.336</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>0.199</v>
+        <v>0.195</v>
       </c>
       <c r="D116">
-        <v>0.228</v>
+        <v>0.218</v>
       </c>
       <c r="E116">
-        <v>0.314</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>0.192</v>
+        <v>0.199</v>
       </c>
       <c r="D117">
-        <v>0.238</v>
+        <v>0.228</v>
       </c>
       <c r="E117">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.197</v>
+        <v>0.192</v>
       </c>
       <c r="D118">
-        <v>0.258</v>
+        <v>0.238</v>
       </c>
       <c r="E118">
-        <v>0.337</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>0.179</v>
+        <v>0.197</v>
       </c>
       <c r="D119">
-        <v>0.228</v>
+        <v>0.258</v>
       </c>
       <c r="E119">
-        <v>0.355</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>0.184</v>
+        <v>0.179</v>
       </c>
       <c r="D120">
-        <v>0.223</v>
+        <v>0.228</v>
       </c>
       <c r="E120">
-        <v>0.341</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>0.179</v>
+        <v>0.184</v>
       </c>
       <c r="D121">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E121">
-        <v>0.209</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>0.143</v>
+        <v>0.179</v>
       </c>
       <c r="D122">
-        <v>0.202</v>
+        <v>0.222</v>
       </c>
       <c r="E122">
-        <v>0.116</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>0.138</v>
+        <v>0.143</v>
       </c>
       <c r="D123">
         <v>0.202</v>
       </c>
+      <c r="E123">
+        <v>0.116</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>0.163</v>
+        <v>0.138</v>
       </c>
       <c r="D124">
-        <v>0.215</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>0.192</v>
+        <v>0.163</v>
       </c>
       <c r="D125">
-        <v>0.222</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>0.197</v>
+        <v>0.192</v>
       </c>
       <c r="D126">
-        <v>0.252</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>0.191</v>
+        <v>0.197</v>
       </c>
       <c r="D127">
-        <v>0.256</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>0.216</v>
+        <v>0.191</v>
       </c>
       <c r="D128">
-        <v>0.299</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="D129">
-        <v>0.283</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="D130">
-        <v>0.25</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="D131">
-        <v>0.272</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B132">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132">
-        <v>0.221</v>
+        <v>0.215</v>
       </c>
       <c r="D132">
-        <v>0.28</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133">
-        <v>0.166</v>
+        <v>0.221</v>
       </c>
       <c r="D133">
-        <v>0.245</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C134">
-        <v>0.143</v>
+        <v>0.166</v>
       </c>
       <c r="D134">
-        <v>0.247</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>0.164</v>
+        <v>0.143</v>
       </c>
       <c r="D135">
-        <v>0.259</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>0.17</v>
+        <v>0.164</v>
       </c>
       <c r="D136">
-        <v>0.268</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>0.17</v>
+      </c>
+      <c r="D137">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
         <v>44287</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>4</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <v>0.2</v>
       </c>
-      <c r="D137">
+      <c r="D138">
         <v>0.306</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>0.177</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Datos informalidad/Output/Datos RIED/datos_grafico_informales_3series.xlsx
+++ b/Datos informalidad/Output/Datos RIED/datos_grafico_informales_3series.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,8 +415,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>0.076</v>
+      <c r="C3">
+        <v>0.221</v>
       </c>
       <c r="E3">
         <v>0.259</v>
@@ -438,2248 +438,2298 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40238</v>
+        <v>40210</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.217</v>
-      </c>
-      <c r="D5">
-        <v>0.082</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0.27</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40269</v>
+        <v>40210</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.215</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0.072</v>
+        <v>0.076</v>
       </c>
       <c r="E6">
-        <v>0.27</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40299</v>
+        <v>40210</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0.203</v>
-      </c>
-      <c r="D7">
-        <v>0.06900000000000001</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0.266</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40330</v>
+        <v>40238</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.198</v>
+        <v>0.217</v>
       </c>
       <c r="D8">
-        <v>0.074</v>
+        <v>0.082</v>
       </c>
       <c r="E8">
-        <v>0.292</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40360</v>
+        <v>40269</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.195</v>
+        <v>0.215</v>
       </c>
       <c r="D9">
-        <v>0.079</v>
+        <v>0.072</v>
       </c>
       <c r="E9">
-        <v>0.287</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40391</v>
+        <v>40299</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0.19</v>
+        <v>0.203</v>
       </c>
       <c r="D10">
-        <v>0.08500000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E10">
-        <v>0.283</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40422</v>
+        <v>40330</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0.204</v>
+        <v>0.198</v>
       </c>
       <c r="D11">
-        <v>0.081</v>
+        <v>0.074</v>
       </c>
       <c r="E11">
-        <v>0.265</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40452</v>
+        <v>40360</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>0.204</v>
+        <v>0.195</v>
       </c>
       <c r="D12">
-        <v>0.078</v>
+        <v>0.079</v>
       </c>
       <c r="E12">
-        <v>0.266</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40483</v>
+        <v>40391</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>0.208</v>
+        <v>0.19</v>
       </c>
       <c r="D13">
-        <v>0.076</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E13">
-        <v>0.276</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40513</v>
+        <v>40422</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>0.21</v>
+        <v>0.204</v>
       </c>
       <c r="D14">
-        <v>0.072</v>
+        <v>0.081</v>
       </c>
       <c r="E14">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40544</v>
+        <v>40452</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>0.231</v>
+        <v>0.204</v>
       </c>
       <c r="D15">
-        <v>0.072</v>
+        <v>0.078</v>
       </c>
       <c r="E15">
-        <v>0.272</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40575</v>
+        <v>40483</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>0.227</v>
+        <v>0.208</v>
       </c>
       <c r="D16">
-        <v>0.06800000000000001</v>
+        <v>0.076</v>
       </c>
       <c r="E16">
-        <v>0.272</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40603</v>
+        <v>40513</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>0.222</v>
+        <v>0.21</v>
       </c>
       <c r="D17">
-        <v>0.067</v>
+        <v>0.072</v>
       </c>
       <c r="E17">
-        <v>0.287</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40634</v>
+        <v>40544</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.214</v>
+        <v>0.231</v>
       </c>
       <c r="D18">
-        <v>0.07000000000000001</v>
+        <v>0.072</v>
       </c>
       <c r="E18">
-        <v>0.289</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40664</v>
+        <v>40575</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.215</v>
+        <v>0.227</v>
       </c>
       <c r="D19">
-        <v>0.078</v>
+        <v>0.06800000000000001</v>
       </c>
       <c r="E19">
-        <v>0.3</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40695</v>
+        <v>40603</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0.206</v>
+        <v>0.222</v>
       </c>
       <c r="D20">
-        <v>0.079</v>
+        <v>0.067</v>
       </c>
       <c r="E20">
-        <v>0.291</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40725</v>
+        <v>40634</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="D21">
-        <v>0.074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E21">
-        <v>0.304</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40756</v>
+        <v>40664</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.182</v>
+        <v>0.215</v>
       </c>
       <c r="D22">
-        <v>0.067</v>
+        <v>0.078</v>
       </c>
       <c r="E22">
-        <v>0.302</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40787</v>
+        <v>40695</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0.189</v>
+        <v>0.206</v>
       </c>
       <c r="D23">
-        <v>0.066</v>
+        <v>0.079</v>
       </c>
       <c r="E23">
-        <v>0.307</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40817</v>
+        <v>40725</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0.186</v>
+        <v>0.2</v>
       </c>
       <c r="D24">
-        <v>0.061</v>
+        <v>0.074</v>
       </c>
       <c r="E24">
-        <v>0.28</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40848</v>
+        <v>40756</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="D25">
-        <v>0.058</v>
+        <v>0.067</v>
       </c>
       <c r="E25">
-        <v>0.279</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40878</v>
+        <v>40787</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0.179</v>
+        <v>0.189</v>
       </c>
       <c r="D26">
-        <v>0.064</v>
+        <v>0.066</v>
       </c>
       <c r="E26">
-        <v>0.266</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40909</v>
+        <v>40817</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0.189</v>
+        <v>0.186</v>
       </c>
       <c r="D27">
-        <v>0.078</v>
+        <v>0.061</v>
       </c>
       <c r="E27">
-        <v>0.276</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40940</v>
+        <v>40848</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>0.2</v>
+        <v>0.183</v>
       </c>
       <c r="D28">
-        <v>0.08500000000000001</v>
+        <v>0.058</v>
       </c>
       <c r="E28">
-        <v>0.275</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>40969</v>
+        <v>40878</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>0.192</v>
+        <v>0.179</v>
       </c>
       <c r="D29">
-        <v>0.074</v>
+        <v>0.064</v>
       </c>
       <c r="E29">
-        <v>0.297</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41000</v>
+        <v>40909</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.196</v>
+        <v>0.189</v>
       </c>
       <c r="D30">
-        <v>0.07099999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="E30">
-        <v>0.296</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41030</v>
+        <v>40940</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>0.196</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
-        <v>0.064</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E31">
-        <v>0.304</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41061</v>
+        <v>40969</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>0.187</v>
+        <v>0.192</v>
       </c>
       <c r="D32">
-        <v>0.067</v>
+        <v>0.074</v>
       </c>
       <c r="E32">
-        <v>0.299</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41091</v>
+        <v>41000</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>0.187</v>
+        <v>0.196</v>
       </c>
       <c r="D33">
-        <v>0.072</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E33">
-        <v>0.297</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41122</v>
+        <v>41030</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>0.182</v>
+        <v>0.196</v>
       </c>
       <c r="D34">
-        <v>0.07000000000000001</v>
+        <v>0.064</v>
       </c>
       <c r="E34">
-        <v>0.296</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41153</v>
+        <v>41061</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>0.182</v>
+        <v>0.187</v>
       </c>
       <c r="D35">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
       <c r="E35">
-        <v>0.292</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41183</v>
+        <v>41091</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>0.162</v>
+        <v>0.187</v>
       </c>
       <c r="D36">
-        <v>0.056</v>
+        <v>0.072</v>
       </c>
       <c r="E36">
-        <v>0.304</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41214</v>
+        <v>41122</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>0.145</v>
+        <v>0.182</v>
       </c>
       <c r="D37">
-        <v>0.059</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E37">
-        <v>0.298</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41244</v>
+        <v>41153</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>0.161</v>
+        <v>0.182</v>
       </c>
       <c r="D38">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="E38">
-        <v>0.28</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41275</v>
+        <v>41183</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>0.174</v>
+        <v>0.162</v>
       </c>
       <c r="D39">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="E39">
-        <v>0.274</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41306</v>
+        <v>41214</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>0.18</v>
+        <v>0.145</v>
       </c>
       <c r="D40">
-        <v>0.046</v>
+        <v>0.059</v>
       </c>
       <c r="E40">
-        <v>0.271</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41334</v>
+        <v>41244</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C41">
-        <v>0.199</v>
+        <v>0.161</v>
       </c>
       <c r="D41">
-        <v>0.104</v>
+        <v>0.055</v>
       </c>
       <c r="E41">
-        <v>0.285</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41365</v>
+        <v>41275</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.201</v>
+        <v>0.174</v>
       </c>
       <c r="D42">
-        <v>0.091</v>
+        <v>0.052</v>
       </c>
       <c r="E42">
-        <v>0.279</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41395</v>
+        <v>41306</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="D43">
-        <v>0.1</v>
+        <v>0.046</v>
       </c>
       <c r="E43">
-        <v>0.266</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41426</v>
+        <v>41334</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0.214</v>
+        <v>0.199</v>
       </c>
       <c r="D44">
-        <v>0.097</v>
+        <v>0.104</v>
       </c>
       <c r="E44">
-        <v>0.26</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41456</v>
+        <v>41365</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0.2</v>
+        <v>0.201</v>
       </c>
       <c r="D45">
-        <v>0.11</v>
+        <v>0.091</v>
       </c>
       <c r="E45">
-        <v>0.263</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41487</v>
+        <v>41395</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0.204</v>
+        <v>0.21</v>
       </c>
       <c r="D46">
-        <v>0.123</v>
+        <v>0.1</v>
       </c>
       <c r="E46">
-        <v>0.264</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41518</v>
+        <v>41426</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>0.215</v>
+        <v>0.214</v>
       </c>
       <c r="D47">
-        <v>0.144</v>
+        <v>0.097</v>
       </c>
       <c r="E47">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41548</v>
+        <v>41456</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>0.227</v>
+        <v>0.2</v>
       </c>
       <c r="D48">
-        <v>0.144</v>
+        <v>0.11</v>
       </c>
       <c r="E48">
-        <v>0.256</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41579</v>
+        <v>41487</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>0.237</v>
+        <v>0.204</v>
       </c>
       <c r="D49">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
       <c r="E49">
-        <v>0.266</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41609</v>
+        <v>41518</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.234</v>
+        <v>0.215</v>
       </c>
       <c r="D50">
-        <v>0.116</v>
+        <v>0.144</v>
       </c>
       <c r="E50">
-        <v>0.276</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41640</v>
+        <v>41548</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>0.214</v>
+        <v>0.227</v>
       </c>
       <c r="D51">
-        <v>0.131</v>
+        <v>0.144</v>
       </c>
       <c r="E51">
-        <v>0.268</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41671</v>
+        <v>41579</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>0.199</v>
+        <v>0.237</v>
       </c>
       <c r="D52">
-        <v>0.128</v>
+        <v>0.124</v>
       </c>
       <c r="E52">
-        <v>0.283</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41699</v>
+        <v>41609</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>0.192</v>
+        <v>0.234</v>
       </c>
       <c r="D53">
-        <v>0.118</v>
+        <v>0.116</v>
       </c>
       <c r="E53">
-        <v>0.307</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41730</v>
+        <v>41640</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0.198</v>
+        <v>0.214</v>
       </c>
       <c r="D54">
-        <v>0.128</v>
+        <v>0.131</v>
       </c>
       <c r="E54">
-        <v>0.328</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41760</v>
+        <v>41671</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>0.199</v>
       </c>
       <c r="D55">
-        <v>0.144</v>
+        <v>0.128</v>
       </c>
       <c r="E55">
-        <v>0.32</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41791</v>
+        <v>41699</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>0.203</v>
+        <v>0.192</v>
       </c>
       <c r="D56">
-        <v>0.142</v>
+        <v>0.118</v>
       </c>
       <c r="E56">
-        <v>0.313</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41821</v>
+        <v>41730</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>0.211</v>
+        <v>0.198</v>
       </c>
       <c r="D57">
-        <v>0.138</v>
+        <v>0.128</v>
       </c>
       <c r="E57">
-        <v>0.309</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41852</v>
+        <v>41760</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>0.201</v>
+        <v>0.199</v>
       </c>
       <c r="D58">
-        <v>0.14</v>
+        <v>0.144</v>
       </c>
       <c r="E58">
-        <v>0.298</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41883</v>
+        <v>41791</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>0.196</v>
+        <v>0.203</v>
       </c>
       <c r="D59">
-        <v>0.137</v>
+        <v>0.142</v>
       </c>
       <c r="E59">
-        <v>0.302</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41913</v>
+        <v>41821</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>0.196</v>
+        <v>0.211</v>
       </c>
       <c r="D60">
-        <v>0.111</v>
+        <v>0.138</v>
       </c>
       <c r="E60">
-        <v>0.305</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>41944</v>
+        <v>41852</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>0.182</v>
+        <v>0.201</v>
       </c>
       <c r="D61">
-        <v>0.091</v>
+        <v>0.14</v>
       </c>
       <c r="E61">
-        <v>0.315</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>41974</v>
+        <v>41883</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>0.175</v>
+        <v>0.196</v>
       </c>
       <c r="D62">
-        <v>0.08400000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="E62">
-        <v>0.308</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>42005</v>
+        <v>41913</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>0.17</v>
+        <v>0.196</v>
       </c>
       <c r="D63">
-        <v>0.092</v>
+        <v>0.111</v>
       </c>
       <c r="E63">
-        <v>0.286</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>42036</v>
+        <v>41944</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C64">
-        <v>0.168</v>
+        <v>0.182</v>
       </c>
       <c r="D64">
-        <v>0.08400000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="E64">
-        <v>0.303</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>42064</v>
+        <v>41974</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>0.161</v>
+        <v>0.175</v>
       </c>
       <c r="D65">
-        <v>0.091</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E65">
-        <v>0.296</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42095</v>
+        <v>42005</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.149</v>
+        <v>0.17</v>
       </c>
       <c r="D66">
-        <v>0.076</v>
+        <v>0.092</v>
       </c>
       <c r="E66">
-        <v>0.315</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42125</v>
+        <v>42036</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0.166</v>
+        <v>0.168</v>
       </c>
       <c r="D67">
-        <v>0.088</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E67">
-        <v>0.305</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42156</v>
+        <v>42064</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>0.176</v>
+        <v>0.161</v>
       </c>
       <c r="D68">
         <v>0.091</v>
       </c>
       <c r="E68">
-        <v>0.318</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42186</v>
+        <v>42095</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>0.187</v>
+        <v>0.149</v>
       </c>
       <c r="D69">
-        <v>0.112</v>
+        <v>0.076</v>
       </c>
       <c r="E69">
-        <v>0.302</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42217</v>
+        <v>42125</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>0.182</v>
+        <v>0.166</v>
       </c>
       <c r="D70">
-        <v>0.123</v>
+        <v>0.088</v>
       </c>
       <c r="E70">
-        <v>0.307</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42248</v>
+        <v>42156</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>0.177</v>
+        <v>0.176</v>
       </c>
       <c r="D71">
-        <v>0.154</v>
+        <v>0.091</v>
       </c>
       <c r="E71">
-        <v>0.288</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42278</v>
+        <v>42186</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>0.163</v>
+        <v>0.187</v>
       </c>
       <c r="D72">
-        <v>0.148</v>
+        <v>0.112</v>
       </c>
       <c r="E72">
-        <v>0.287</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42309</v>
+        <v>42217</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>0.167</v>
+        <v>0.182</v>
       </c>
       <c r="D73">
-        <v>0.164</v>
+        <v>0.123</v>
       </c>
       <c r="E73">
-        <v>0.269</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42339</v>
+        <v>42248</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.185</v>
+        <v>0.177</v>
       </c>
       <c r="D74">
-        <v>0.171</v>
+        <v>0.154</v>
       </c>
       <c r="E74">
-        <v>0.248</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42370</v>
+        <v>42278</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>0.18</v>
+        <v>0.163</v>
       </c>
       <c r="D75">
-        <v>0.169</v>
+        <v>0.148</v>
       </c>
       <c r="E75">
-        <v>0.253</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42401</v>
+        <v>42309</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>0.175</v>
+        <v>0.167</v>
       </c>
       <c r="D76">
-        <v>0.171</v>
+        <v>0.164</v>
       </c>
       <c r="E76">
-        <v>0.251</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42430</v>
+        <v>42339</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>0.161</v>
+        <v>0.185</v>
       </c>
       <c r="D77">
-        <v>0.184</v>
+        <v>0.171</v>
       </c>
       <c r="E77">
-        <v>0.269</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42461</v>
+        <v>42370</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D78">
-        <v>0.195</v>
+        <v>0.169</v>
       </c>
       <c r="E78">
-        <v>0.279</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42491</v>
+        <v>42401</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>0.168</v>
+        <v>0.175</v>
       </c>
       <c r="D79">
-        <v>0.195</v>
+        <v>0.171</v>
       </c>
       <c r="E79">
-        <v>0.29</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42522</v>
+        <v>42430</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>0.181</v>
+        <v>0.161</v>
       </c>
       <c r="D80">
-        <v>0.183</v>
+        <v>0.184</v>
       </c>
       <c r="E80">
-        <v>0.297</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42552</v>
+        <v>42461</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>0.187</v>
+        <v>0.16</v>
       </c>
       <c r="D81">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="E81">
-        <v>0.292</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42583</v>
+        <v>42491</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>0.198</v>
+        <v>0.168</v>
       </c>
       <c r="D82">
-        <v>0.194</v>
+        <v>0.195</v>
       </c>
       <c r="E82">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>42614</v>
+        <v>42522</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>0.185</v>
+        <v>0.181</v>
       </c>
       <c r="D83">
-        <v>0.227</v>
+        <v>0.183</v>
       </c>
       <c r="E83">
-        <v>0.272</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>42644</v>
+        <v>42552</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C84">
-        <v>0.178</v>
+        <v>0.187</v>
       </c>
       <c r="D84">
-        <v>0.221</v>
+        <v>0.19</v>
       </c>
       <c r="E84">
-        <v>0.275</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>42675</v>
+        <v>42583</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>0.161</v>
+        <v>0.198</v>
       </c>
       <c r="D85">
-        <v>0.218</v>
+        <v>0.194</v>
       </c>
       <c r="E85">
-        <v>0.282</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>42705</v>
+        <v>42614</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>0.167</v>
+        <v>0.185</v>
       </c>
       <c r="D86">
-        <v>0.201</v>
+        <v>0.227</v>
       </c>
       <c r="E86">
-        <v>0.295</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>42736</v>
+        <v>42644</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>0.168</v>
+        <v>0.178</v>
       </c>
       <c r="D87">
-        <v>0.201</v>
+        <v>0.221</v>
       </c>
       <c r="E87">
-        <v>0.3</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>42767</v>
+        <v>42675</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>0.171</v>
+        <v>0.161</v>
       </c>
       <c r="D88">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="E88">
-        <v>0.303</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>42795</v>
+        <v>42705</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C89">
-        <v>0.164</v>
+        <v>0.167</v>
       </c>
       <c r="D89">
-        <v>0.178</v>
+        <v>0.201</v>
       </c>
       <c r="E89">
-        <v>0.307</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>42826</v>
+        <v>42736</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>0.182</v>
+        <v>0.168</v>
       </c>
       <c r="D90">
-        <v>0.196</v>
+        <v>0.201</v>
       </c>
       <c r="E90">
-        <v>0.281</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>42856</v>
+        <v>42767</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>0.186</v>
+        <v>0.171</v>
       </c>
       <c r="D91">
-        <v>0.186</v>
+        <v>0.214</v>
       </c>
       <c r="E91">
-        <v>0.275</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>42887</v>
+        <v>42795</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>0.196</v>
+        <v>0.164</v>
       </c>
       <c r="D92">
-        <v>0.19</v>
+        <v>0.178</v>
       </c>
       <c r="E92">
-        <v>0.278</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>42917</v>
+        <v>42826</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0.214</v>
+        <v>0.182</v>
       </c>
       <c r="D93">
-        <v>0.199</v>
+        <v>0.196</v>
       </c>
       <c r="E93">
-        <v>0.286</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>42948</v>
+        <v>42856</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>0.209</v>
+        <v>0.186</v>
       </c>
       <c r="D94">
-        <v>0.22</v>
+        <v>0.186</v>
       </c>
       <c r="E94">
-        <v>0.286</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>42979</v>
+        <v>42887</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>0.231</v>
+        <v>0.196</v>
       </c>
       <c r="D95">
-        <v>0.238</v>
+        <v>0.19</v>
       </c>
       <c r="E95">
-        <v>0.295</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>43009</v>
+        <v>42917</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>0.238</v>
+        <v>0.214</v>
       </c>
       <c r="D96">
-        <v>0.246</v>
+        <v>0.199</v>
       </c>
       <c r="E96">
-        <v>0.298</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>43040</v>
+        <v>42948</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.264</v>
+        <v>0.209</v>
       </c>
       <c r="D97">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E97">
-        <v>0.293</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>43070</v>
+        <v>42979</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C98">
+        <v>0.231</v>
+      </c>
+      <c r="D98">
         <v>0.238</v>
       </c>
-      <c r="D98">
-        <v>0.29</v>
-      </c>
       <c r="E98">
-        <v>0.301</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>43101</v>
+        <v>43009</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0.225</v>
+        <v>0.238</v>
       </c>
       <c r="D99">
-        <v>0.276</v>
+        <v>0.246</v>
       </c>
       <c r="E99">
-        <v>0.299</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>43132</v>
+        <v>43040</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.213</v>
+        <v>0.264</v>
       </c>
       <c r="D100">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="E100">
-        <v>0.305</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>43160</v>
+        <v>43070</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.226</v>
+        <v>0.238</v>
       </c>
       <c r="D101">
+        <v>0.29</v>
+      </c>
+      <c r="E101">
         <v>0.301</v>
-      </c>
-      <c r="E101">
-        <v>0.289</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>43191</v>
+        <v>43101</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="D102">
-        <v>0.3</v>
+        <v>0.276</v>
       </c>
       <c r="E102">
-        <v>0.296</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>43221</v>
+        <v>43132</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>0.223</v>
+        <v>0.213</v>
       </c>
       <c r="D103">
-        <v>0.281</v>
+        <v>0.29</v>
       </c>
       <c r="E103">
-        <v>0.313</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>43252</v>
+        <v>43160</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>0.23</v>
+        <v>0.226</v>
       </c>
       <c r="D104">
-        <v>0.274</v>
+        <v>0.301</v>
       </c>
       <c r="E104">
-        <v>0.314</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>43282</v>
+        <v>43191</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>0.228</v>
+        <v>0.23</v>
       </c>
       <c r="D105">
-        <v>0.268</v>
+        <v>0.3</v>
       </c>
       <c r="E105">
-        <v>0.301</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>43313</v>
+        <v>43221</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106">
         <v>0.223</v>
       </c>
       <c r="D106">
-        <v>0.269</v>
+        <v>0.281</v>
       </c>
       <c r="E106">
-        <v>0.289</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>43344</v>
+        <v>43252</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>0.232</v>
+        <v>0.23</v>
       </c>
       <c r="D107">
-        <v>0.251</v>
+        <v>0.274</v>
       </c>
       <c r="E107">
-        <v>0.293</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>43374</v>
+        <v>43282</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>0.234</v>
+        <v>0.228</v>
       </c>
       <c r="D108">
-        <v>0.27</v>
+        <v>0.268</v>
       </c>
       <c r="E108">
-        <v>0.294</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>43405</v>
+        <v>43313</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>0.229</v>
+        <v>0.223</v>
       </c>
       <c r="D109">
-        <v>0.254</v>
+        <v>0.269</v>
       </c>
       <c r="E109">
-        <v>0.29</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>43435</v>
+        <v>43344</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C110">
-        <v>0.249</v>
+        <v>0.232</v>
       </c>
       <c r="D110">
-        <v>0.264</v>
+        <v>0.251</v>
       </c>
       <c r="E110">
-        <v>0.287</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>0.254</v>
+        <v>0.234</v>
       </c>
       <c r="D111">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
       <c r="E111">
-        <v>0.266</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>43497</v>
+        <v>43405</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C112">
-        <v>0.248</v>
+        <v>0.229</v>
       </c>
       <c r="D112">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="E112">
-        <v>0.283</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>43525</v>
+        <v>43435</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>0.232</v>
+        <v>0.249</v>
       </c>
       <c r="D113">
-        <v>0.269</v>
+        <v>0.264</v>
       </c>
       <c r="E113">
-        <v>0.277</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>0.239</v>
+        <v>0.254</v>
       </c>
       <c r="D114">
-        <v>0.285</v>
+        <v>0.272</v>
       </c>
       <c r="E114">
-        <v>0.305</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>43586</v>
+        <v>43497</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>0.245</v>
+        <v>0.248</v>
       </c>
       <c r="D115">
-        <v>0.29</v>
+        <v>0.262</v>
       </c>
       <c r="E115">
-        <v>0.303</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>43617</v>
+        <v>43525</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>0.195</v>
+        <v>0.232</v>
       </c>
       <c r="D116">
-        <v>0.218</v>
+        <v>0.269</v>
       </c>
       <c r="E116">
-        <v>0.336</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>0.199</v>
+        <v>0.239</v>
       </c>
       <c r="D117">
-        <v>0.228</v>
+        <v>0.285</v>
       </c>
       <c r="E117">
-        <v>0.314</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>43678</v>
+        <v>43586</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>0.192</v>
+        <v>0.245</v>
       </c>
       <c r="D118">
-        <v>0.238</v>
+        <v>0.29</v>
       </c>
       <c r="E118">
-        <v>0.327</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>43709</v>
+        <v>43617</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>0.197</v>
+        <v>0.195</v>
       </c>
       <c r="D119">
-        <v>0.258</v>
+        <v>0.218</v>
       </c>
       <c r="E119">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>0.179</v>
+        <v>0.199</v>
       </c>
       <c r="D120">
         <v>0.228</v>
       </c>
       <c r="E120">
-        <v>0.355</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>43770</v>
+        <v>43678</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>0.184</v>
+        <v>0.192</v>
       </c>
       <c r="D121">
-        <v>0.223</v>
+        <v>0.238</v>
       </c>
       <c r="E121">
-        <v>0.341</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>43800</v>
+        <v>43709</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>0.179</v>
+        <v>0.197</v>
       </c>
       <c r="D122">
-        <v>0.222</v>
+        <v>0.258</v>
       </c>
       <c r="E122">
-        <v>0.209</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>0.143</v>
+        <v>0.179</v>
       </c>
       <c r="D123">
-        <v>0.202</v>
+        <v>0.228</v>
       </c>
       <c r="E123">
-        <v>0.116</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>43862</v>
+        <v>43770</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>0.138</v>
+        <v>0.184</v>
       </c>
       <c r="D124">
-        <v>0.202</v>
+        <v>0.223</v>
+      </c>
+      <c r="E124">
+        <v>0.341</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>43891</v>
+        <v>43800</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>0.163</v>
+        <v>0.179</v>
       </c>
       <c r="D125">
-        <v>0.215</v>
+        <v>0.222</v>
+      </c>
+      <c r="E125">
+        <v>0.209</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>0.192</v>
+        <v>0.143</v>
       </c>
       <c r="D126">
-        <v>0.222</v>
+        <v>0.202</v>
+      </c>
+      <c r="E126">
+        <v>0.116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>43952</v>
+        <v>43862</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>0.197</v>
+        <v>0.138</v>
       </c>
       <c r="D127">
-        <v>0.252</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>43983</v>
+        <v>43891</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C128">
-        <v>0.191</v>
+        <v>0.163</v>
       </c>
       <c r="D128">
-        <v>0.256</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>0.216</v>
+        <v>0.192</v>
       </c>
       <c r="D129">
-        <v>0.299</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>44044</v>
+        <v>43952</v>
       </c>
       <c r="B130">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130">
-        <v>0.215</v>
+        <v>0.197</v>
       </c>
       <c r="D130">
-        <v>0.283</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>44075</v>
+        <v>43983</v>
       </c>
       <c r="B131">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>0.219</v>
+        <v>0.191</v>
       </c>
       <c r="D131">
-        <v>0.25</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="B132">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C132">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="D132">
-        <v>0.272</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44136</v>
+        <v>44044</v>
       </c>
       <c r="B133">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C133">
-        <v>0.221</v>
+        <v>0.215</v>
       </c>
       <c r="D133">
-        <v>0.28</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44166</v>
+        <v>44075</v>
       </c>
       <c r="B134">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C134">
-        <v>0.166</v>
+        <v>0.219</v>
       </c>
       <c r="D134">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44197</v>
+        <v>44105</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C135">
-        <v>0.143</v>
+        <v>0.215</v>
       </c>
       <c r="D135">
-        <v>0.247</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44228</v>
+        <v>44136</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C136">
-        <v>0.164</v>
+        <v>0.221</v>
       </c>
       <c r="D136">
-        <v>0.259</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>44256</v>
+        <v>44166</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C137">
-        <v>0.17</v>
+        <v>0.166</v>
       </c>
       <c r="D137">
-        <v>0.268</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>44287</v>
+        <v>44197</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>0.2</v>
+        <v>0.143</v>
       </c>
       <c r="D138">
-        <v>0.306</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>0.164</v>
+      </c>
+      <c r="D139">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>0.17</v>
+      </c>
+      <c r="D140">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>0.2</v>
+      </c>
+      <c r="D141">
+        <v>0.306</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
         <v>44317</v>
       </c>
-      <c r="B139">
+      <c r="B142">
         <v>5</v>
       </c>
-      <c r="C139">
+      <c r="C142">
         <v>0.177</v>
       </c>
-      <c r="D139">
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>0.17</v>
+      </c>
+      <c r="D143">
         <v>1</v>
       </c>
     </row>

--- a/Datos informalidad/Output/Datos RIED/datos_grafico_informales_3series.xlsx
+++ b/Datos informalidad/Output/Datos RIED/datos_grafico_informales_3series.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,114 +410,135 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0.221</v>
+        <v>0.217</v>
+      </c>
+      <c r="D3">
+        <v>0.082</v>
       </c>
       <c r="E3">
-        <v>0.259</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40210</v>
+        <v>40269</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0.215</v>
       </c>
       <c r="D4">
-        <v>0.076</v>
+        <v>0.072</v>
       </c>
       <c r="E4">
-        <v>0.259</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.203</v>
+      </c>
+      <c r="D5">
+        <v>0.06900000000000001</v>
       </c>
       <c r="E5">
-        <v>0.259</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40210</v>
+        <v>40330</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0.198</v>
       </c>
       <c r="D6">
-        <v>0.076</v>
+        <v>0.074</v>
       </c>
       <c r="E6">
-        <v>0.259</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40210</v>
+        <v>40360</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.195</v>
+      </c>
+      <c r="D7">
+        <v>0.079</v>
       </c>
       <c r="E7">
-        <v>0.259</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40238</v>
+        <v>40391</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0.217</v>
+        <v>0.19</v>
       </c>
       <c r="D8">
-        <v>0.082</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E8">
-        <v>0.27</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40269</v>
+        <v>40422</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0.215</v>
+        <v>0.204</v>
       </c>
       <c r="D9">
-        <v>0.072</v>
+        <v>0.081</v>
       </c>
       <c r="E9">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40299</v>
+        <v>40452</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.203</v>
+        <v>0.204</v>
       </c>
       <c r="D10">
-        <v>0.06900000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="E10">
         <v>0.266</v>
@@ -525,407 +546,407 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40330</v>
+        <v>40483</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0.198</v>
+        <v>0.208</v>
       </c>
       <c r="D11">
-        <v>0.074</v>
+        <v>0.076</v>
       </c>
       <c r="E11">
-        <v>0.292</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40360</v>
+        <v>40513</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="D12">
-        <v>0.079</v>
+        <v>0.072</v>
       </c>
       <c r="E12">
-        <v>0.287</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40391</v>
+        <v>40544</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.19</v>
+        <v>0.231</v>
       </c>
       <c r="D13">
-        <v>0.08500000000000001</v>
+        <v>0.072</v>
       </c>
       <c r="E13">
-        <v>0.283</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40422</v>
+        <v>40575</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0.204</v>
+        <v>0.227</v>
       </c>
       <c r="D14">
-        <v>0.081</v>
+        <v>0.06800000000000001</v>
       </c>
       <c r="E14">
-        <v>0.265</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40452</v>
+        <v>40603</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0.204</v>
+        <v>0.222</v>
       </c>
       <c r="D15">
-        <v>0.078</v>
+        <v>0.067</v>
       </c>
       <c r="E15">
-        <v>0.266</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40483</v>
+        <v>40634</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>0.208</v>
+        <v>0.214</v>
       </c>
       <c r="D16">
-        <v>0.076</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E16">
-        <v>0.276</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40513</v>
+        <v>40664</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="D17">
-        <v>0.072</v>
+        <v>0.078</v>
       </c>
       <c r="E17">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40544</v>
+        <v>40695</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0.231</v>
+        <v>0.206</v>
       </c>
       <c r="D18">
-        <v>0.072</v>
+        <v>0.079</v>
       </c>
       <c r="E18">
-        <v>0.272</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40575</v>
+        <v>40725</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>0.227</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>0.06800000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="E19">
-        <v>0.272</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40603</v>
+        <v>40756</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>0.222</v>
+        <v>0.182</v>
       </c>
       <c r="D20">
         <v>0.067</v>
       </c>
       <c r="E20">
-        <v>0.287</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40634</v>
+        <v>40787</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>0.214</v>
+        <v>0.189</v>
       </c>
       <c r="D21">
-        <v>0.07000000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="E21">
-        <v>0.289</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40664</v>
+        <v>40817</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>0.215</v>
+        <v>0.186</v>
       </c>
       <c r="D22">
-        <v>0.078</v>
+        <v>0.061</v>
       </c>
       <c r="E22">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40695</v>
+        <v>40848</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>0.206</v>
+        <v>0.183</v>
       </c>
       <c r="D23">
-        <v>0.079</v>
+        <v>0.058</v>
       </c>
       <c r="E23">
-        <v>0.291</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40725</v>
+        <v>40878</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.179</v>
       </c>
       <c r="D24">
-        <v>0.074</v>
+        <v>0.064</v>
       </c>
       <c r="E24">
-        <v>0.304</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40756</v>
+        <v>40909</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.182</v>
+        <v>0.189</v>
       </c>
       <c r="D25">
-        <v>0.067</v>
+        <v>0.078</v>
       </c>
       <c r="E25">
-        <v>0.302</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40787</v>
+        <v>40940</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0.189</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.066</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E26">
-        <v>0.307</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40817</v>
+        <v>40969</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>0.186</v>
+        <v>0.192</v>
       </c>
       <c r="D27">
-        <v>0.061</v>
+        <v>0.074</v>
       </c>
       <c r="E27">
-        <v>0.28</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40848</v>
+        <v>41000</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>0.183</v>
+        <v>0.196</v>
       </c>
       <c r="D28">
-        <v>0.058</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E28">
-        <v>0.279</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>40878</v>
+        <v>41030</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>0.179</v>
+        <v>0.196</v>
       </c>
       <c r="D29">
         <v>0.064</v>
       </c>
       <c r="E29">
-        <v>0.266</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>40909</v>
+        <v>41061</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>0.189</v>
+        <v>0.187</v>
       </c>
       <c r="D30">
-        <v>0.078</v>
+        <v>0.067</v>
       </c>
       <c r="E30">
-        <v>0.276</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>40940</v>
+        <v>41091</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>0.2</v>
+        <v>0.187</v>
       </c>
       <c r="D31">
-        <v>0.08500000000000001</v>
+        <v>0.072</v>
       </c>
       <c r="E31">
-        <v>0.275</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>40969</v>
+        <v>41122</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>0.192</v>
+        <v>0.182</v>
       </c>
       <c r="D32">
-        <v>0.074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E32">
-        <v>0.297</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41000</v>
+        <v>41153</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>0.196</v>
+        <v>0.182</v>
       </c>
       <c r="D33">
-        <v>0.07099999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="E33">
-        <v>0.296</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41030</v>
+        <v>41183</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>0.196</v>
+        <v>0.162</v>
       </c>
       <c r="D34">
-        <v>0.064</v>
+        <v>0.056</v>
       </c>
       <c r="E34">
         <v>0.304</v>
@@ -933,509 +954,509 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41061</v>
+        <v>41214</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>0.187</v>
+        <v>0.145</v>
       </c>
       <c r="D35">
-        <v>0.067</v>
+        <v>0.059</v>
       </c>
       <c r="E35">
-        <v>0.299</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41091</v>
+        <v>41244</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>0.187</v>
+        <v>0.161</v>
       </c>
       <c r="D36">
-        <v>0.072</v>
+        <v>0.055</v>
       </c>
       <c r="E36">
-        <v>0.297</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41122</v>
+        <v>41275</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.182</v>
+        <v>0.174</v>
       </c>
       <c r="D37">
-        <v>0.07000000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="E37">
-        <v>0.296</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41153</v>
+        <v>41306</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>0.182</v>
+        <v>0.18</v>
       </c>
       <c r="D38">
-        <v>0.065</v>
+        <v>0.046</v>
       </c>
       <c r="E38">
-        <v>0.292</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41183</v>
+        <v>41334</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>0.162</v>
+        <v>0.199</v>
       </c>
       <c r="D39">
-        <v>0.056</v>
+        <v>0.104</v>
       </c>
       <c r="E39">
-        <v>0.304</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41214</v>
+        <v>41365</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>0.145</v>
+        <v>0.201</v>
       </c>
       <c r="D40">
-        <v>0.059</v>
+        <v>0.091</v>
       </c>
       <c r="E40">
-        <v>0.298</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41244</v>
+        <v>41395</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>0.161</v>
+        <v>0.21</v>
       </c>
       <c r="D41">
-        <v>0.055</v>
+        <v>0.1</v>
       </c>
       <c r="E41">
-        <v>0.28</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41275</v>
+        <v>41426</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>0.174</v>
+        <v>0.214</v>
       </c>
       <c r="D42">
-        <v>0.052</v>
+        <v>0.097</v>
       </c>
       <c r="E42">
-        <v>0.274</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41306</v>
+        <v>41456</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
-        <v>0.046</v>
+        <v>0.11</v>
       </c>
       <c r="E43">
-        <v>0.271</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41334</v>
+        <v>41487</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>0.199</v>
+        <v>0.204</v>
       </c>
       <c r="D44">
-        <v>0.104</v>
+        <v>0.123</v>
       </c>
       <c r="E44">
-        <v>0.285</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41365</v>
+        <v>41518</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>0.201</v>
+        <v>0.215</v>
       </c>
       <c r="D45">
-        <v>0.091</v>
+        <v>0.144</v>
       </c>
       <c r="E45">
-        <v>0.279</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41395</v>
+        <v>41548</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>0.21</v>
+        <v>0.227</v>
       </c>
       <c r="D46">
-        <v>0.1</v>
+        <v>0.144</v>
       </c>
       <c r="E46">
-        <v>0.266</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41426</v>
+        <v>41579</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>0.214</v>
+        <v>0.237</v>
       </c>
       <c r="D47">
-        <v>0.097</v>
+        <v>0.124</v>
       </c>
       <c r="E47">
-        <v>0.26</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41456</v>
+        <v>41609</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>0.2</v>
+        <v>0.234</v>
       </c>
       <c r="D48">
-        <v>0.11</v>
+        <v>0.116</v>
       </c>
       <c r="E48">
-        <v>0.263</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41487</v>
+        <v>41640</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.204</v>
+        <v>0.214</v>
       </c>
       <c r="D49">
-        <v>0.123</v>
+        <v>0.131</v>
       </c>
       <c r="E49">
-        <v>0.264</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41518</v>
+        <v>41671</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>0.215</v>
+        <v>0.199</v>
       </c>
       <c r="D50">
-        <v>0.144</v>
+        <v>0.128</v>
       </c>
       <c r="E50">
-        <v>0.255</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41548</v>
+        <v>41699</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>0.227</v>
+        <v>0.192</v>
       </c>
       <c r="D51">
-        <v>0.144</v>
+        <v>0.118</v>
       </c>
       <c r="E51">
-        <v>0.256</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41579</v>
+        <v>41730</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>0.237</v>
+        <v>0.198</v>
       </c>
       <c r="D52">
-        <v>0.124</v>
+        <v>0.128</v>
       </c>
       <c r="E52">
-        <v>0.266</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41609</v>
+        <v>41760</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>0.234</v>
+        <v>0.199</v>
       </c>
       <c r="D53">
-        <v>0.116</v>
+        <v>0.144</v>
       </c>
       <c r="E53">
-        <v>0.276</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41640</v>
+        <v>41791</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>0.214</v>
+        <v>0.203</v>
       </c>
       <c r="D54">
-        <v>0.131</v>
+        <v>0.142</v>
       </c>
       <c r="E54">
-        <v>0.268</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41671</v>
+        <v>41821</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>0.199</v>
+        <v>0.211</v>
       </c>
       <c r="D55">
-        <v>0.128</v>
+        <v>0.138</v>
       </c>
       <c r="E55">
-        <v>0.283</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41699</v>
+        <v>41852</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>0.192</v>
+        <v>0.201</v>
       </c>
       <c r="D56">
-        <v>0.118</v>
+        <v>0.14</v>
       </c>
       <c r="E56">
-        <v>0.307</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41730</v>
+        <v>41883</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>0.198</v>
+        <v>0.196</v>
       </c>
       <c r="D57">
-        <v>0.128</v>
+        <v>0.137</v>
       </c>
       <c r="E57">
-        <v>0.328</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41760</v>
+        <v>41913</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>0.199</v>
+        <v>0.196</v>
       </c>
       <c r="D58">
-        <v>0.144</v>
+        <v>0.111</v>
       </c>
       <c r="E58">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41791</v>
+        <v>41944</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>0.203</v>
+        <v>0.182</v>
       </c>
       <c r="D59">
-        <v>0.142</v>
+        <v>0.091</v>
       </c>
       <c r="E59">
-        <v>0.313</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41821</v>
+        <v>41974</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>0.211</v>
+        <v>0.175</v>
       </c>
       <c r="D60">
-        <v>0.138</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E60">
-        <v>0.309</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>41852</v>
+        <v>42005</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>0.201</v>
+        <v>0.17</v>
       </c>
       <c r="D61">
-        <v>0.14</v>
+        <v>0.092</v>
       </c>
       <c r="E61">
-        <v>0.298</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>41883</v>
+        <v>42036</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>0.196</v>
+        <v>0.168</v>
       </c>
       <c r="D62">
-        <v>0.137</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E62">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>41913</v>
+        <v>42064</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>0.196</v>
+        <v>0.161</v>
       </c>
       <c r="D63">
-        <v>0.111</v>
+        <v>0.091</v>
       </c>
       <c r="E63">
-        <v>0.305</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>41944</v>
+        <v>42095</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>0.182</v>
+        <v>0.149</v>
       </c>
       <c r="D64">
-        <v>0.091</v>
+        <v>0.076</v>
       </c>
       <c r="E64">
         <v>0.315</v>
@@ -1443,679 +1464,679 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>41974</v>
+        <v>42125</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>0.175</v>
+        <v>0.166</v>
       </c>
       <c r="D65">
-        <v>0.08400000000000001</v>
+        <v>0.088</v>
       </c>
       <c r="E65">
-        <v>0.308</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42005</v>
+        <v>42156</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>0.17</v>
+        <v>0.176</v>
       </c>
       <c r="D66">
-        <v>0.092</v>
+        <v>0.091</v>
       </c>
       <c r="E66">
-        <v>0.286</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42036</v>
+        <v>42186</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C67">
-        <v>0.168</v>
+        <v>0.187</v>
       </c>
       <c r="D67">
-        <v>0.08400000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="E67">
-        <v>0.303</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42064</v>
+        <v>42217</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>0.161</v>
+        <v>0.182</v>
       </c>
       <c r="D68">
-        <v>0.091</v>
+        <v>0.123</v>
       </c>
       <c r="E68">
-        <v>0.296</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42095</v>
+        <v>42248</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>0.149</v>
+        <v>0.177</v>
       </c>
       <c r="D69">
-        <v>0.076</v>
+        <v>0.154</v>
       </c>
       <c r="E69">
-        <v>0.315</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42125</v>
+        <v>42278</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>0.166</v>
+        <v>0.163</v>
       </c>
       <c r="D70">
-        <v>0.088</v>
+        <v>0.148</v>
       </c>
       <c r="E70">
-        <v>0.305</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42156</v>
+        <v>42309</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>0.176</v>
+        <v>0.167</v>
       </c>
       <c r="D71">
-        <v>0.091</v>
+        <v>0.164</v>
       </c>
       <c r="E71">
-        <v>0.318</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42186</v>
+        <v>42339</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C72">
-        <v>0.187</v>
+        <v>0.185</v>
       </c>
       <c r="D72">
-        <v>0.112</v>
+        <v>0.171</v>
       </c>
       <c r="E72">
-        <v>0.302</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42217</v>
+        <v>42370</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>0.182</v>
+        <v>0.18</v>
       </c>
       <c r="D73">
-        <v>0.123</v>
+        <v>0.169</v>
       </c>
       <c r="E73">
-        <v>0.307</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42248</v>
+        <v>42401</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>0.177</v>
+        <v>0.175</v>
       </c>
       <c r="D74">
-        <v>0.154</v>
+        <v>0.171</v>
       </c>
       <c r="E74">
-        <v>0.288</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42278</v>
+        <v>42430</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>0.163</v>
+        <v>0.161</v>
       </c>
       <c r="D75">
-        <v>0.148</v>
+        <v>0.184</v>
       </c>
       <c r="E75">
-        <v>0.287</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42309</v>
+        <v>42461</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>0.167</v>
+        <v>0.16</v>
       </c>
       <c r="D76">
-        <v>0.164</v>
+        <v>0.195</v>
       </c>
       <c r="E76">
-        <v>0.269</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42339</v>
+        <v>42491</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>0.185</v>
+        <v>0.168</v>
       </c>
       <c r="D77">
-        <v>0.171</v>
+        <v>0.195</v>
       </c>
       <c r="E77">
-        <v>0.248</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42370</v>
+        <v>42522</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>0.18</v>
+        <v>0.181</v>
       </c>
       <c r="D78">
-        <v>0.169</v>
+        <v>0.183</v>
       </c>
       <c r="E78">
-        <v>0.253</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42401</v>
+        <v>42552</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79">
-        <v>0.175</v>
+        <v>0.187</v>
       </c>
       <c r="D79">
-        <v>0.171</v>
+        <v>0.19</v>
       </c>
       <c r="E79">
-        <v>0.251</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42430</v>
+        <v>42583</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C80">
-        <v>0.161</v>
+        <v>0.198</v>
       </c>
       <c r="D80">
-        <v>0.184</v>
+        <v>0.194</v>
       </c>
       <c r="E80">
-        <v>0.269</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42461</v>
+        <v>42614</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>0.16</v>
+        <v>0.185</v>
       </c>
       <c r="D81">
-        <v>0.195</v>
+        <v>0.227</v>
       </c>
       <c r="E81">
-        <v>0.279</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42491</v>
+        <v>42644</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>0.168</v>
+        <v>0.178</v>
       </c>
       <c r="D82">
-        <v>0.195</v>
+        <v>0.221</v>
       </c>
       <c r="E82">
-        <v>0.29</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>42522</v>
+        <v>42675</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>0.181</v>
+        <v>0.161</v>
       </c>
       <c r="D83">
-        <v>0.183</v>
+        <v>0.218</v>
       </c>
       <c r="E83">
-        <v>0.297</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>42552</v>
+        <v>42705</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C84">
-        <v>0.187</v>
+        <v>0.167</v>
       </c>
       <c r="D84">
-        <v>0.19</v>
+        <v>0.201</v>
       </c>
       <c r="E84">
-        <v>0.292</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>42583</v>
+        <v>42736</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>0.198</v>
+        <v>0.168</v>
       </c>
       <c r="D85">
-        <v>0.194</v>
+        <v>0.201</v>
       </c>
       <c r="E85">
-        <v>0.286</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>42614</v>
+        <v>42767</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>0.185</v>
+        <v>0.171</v>
       </c>
       <c r="D86">
-        <v>0.227</v>
+        <v>0.214</v>
       </c>
       <c r="E86">
-        <v>0.272</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>42644</v>
+        <v>42795</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C87">
+        <v>0.164</v>
+      </c>
+      <c r="D87">
         <v>0.178</v>
       </c>
-      <c r="D87">
-        <v>0.221</v>
-      </c>
       <c r="E87">
-        <v>0.275</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>42675</v>
+        <v>42826</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>0.161</v>
+        <v>0.182</v>
       </c>
       <c r="D88">
-        <v>0.218</v>
+        <v>0.196</v>
       </c>
       <c r="E88">
-        <v>0.282</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>42705</v>
+        <v>42856</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>0.167</v>
+        <v>0.186</v>
       </c>
       <c r="D89">
-        <v>0.201</v>
+        <v>0.186</v>
       </c>
       <c r="E89">
-        <v>0.295</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>42736</v>
+        <v>42887</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>0.168</v>
+        <v>0.196</v>
       </c>
       <c r="D90">
-        <v>0.201</v>
+        <v>0.19</v>
       </c>
       <c r="E90">
-        <v>0.3</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>42767</v>
+        <v>42917</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C91">
-        <v>0.171</v>
+        <v>0.214</v>
       </c>
       <c r="D91">
-        <v>0.214</v>
+        <v>0.199</v>
       </c>
       <c r="E91">
-        <v>0.303</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>42795</v>
+        <v>42948</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>0.164</v>
+        <v>0.209</v>
       </c>
       <c r="D92">
-        <v>0.178</v>
+        <v>0.22</v>
       </c>
       <c r="E92">
-        <v>0.307</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>42826</v>
+        <v>42979</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <v>0.182</v>
+        <v>0.231</v>
       </c>
       <c r="D93">
-        <v>0.196</v>
+        <v>0.238</v>
       </c>
       <c r="E93">
-        <v>0.281</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>42856</v>
+        <v>43009</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>0.186</v>
+        <v>0.238</v>
       </c>
       <c r="D94">
-        <v>0.186</v>
+        <v>0.246</v>
       </c>
       <c r="E94">
-        <v>0.275</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>42887</v>
+        <v>43040</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C95">
-        <v>0.196</v>
+        <v>0.264</v>
       </c>
       <c r="D95">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="E95">
-        <v>0.278</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>42917</v>
+        <v>43070</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C96">
-        <v>0.214</v>
+        <v>0.238</v>
       </c>
       <c r="D96">
-        <v>0.199</v>
+        <v>0.29</v>
       </c>
       <c r="E96">
-        <v>0.286</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>42948</v>
+        <v>43101</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>0.209</v>
+        <v>0.225</v>
       </c>
       <c r="D97">
-        <v>0.22</v>
+        <v>0.276</v>
       </c>
       <c r="E97">
-        <v>0.286</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>42979</v>
+        <v>43132</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C98">
-        <v>0.231</v>
+        <v>0.213</v>
       </c>
       <c r="D98">
-        <v>0.238</v>
+        <v>0.29</v>
       </c>
       <c r="E98">
-        <v>0.295</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>43009</v>
+        <v>43160</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>0.238</v>
+        <v>0.226</v>
       </c>
       <c r="D99">
-        <v>0.246</v>
+        <v>0.301</v>
       </c>
       <c r="E99">
-        <v>0.298</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>43040</v>
+        <v>43191</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>0.264</v>
+        <v>0.23</v>
       </c>
       <c r="D100">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E100">
-        <v>0.293</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>43070</v>
+        <v>43221</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C101">
-        <v>0.238</v>
+        <v>0.223</v>
       </c>
       <c r="D101">
-        <v>0.29</v>
+        <v>0.281</v>
       </c>
       <c r="E101">
-        <v>0.301</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>43101</v>
+        <v>43252</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="D102">
-        <v>0.276</v>
+        <v>0.274</v>
       </c>
       <c r="E102">
-        <v>0.299</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>43132</v>
+        <v>43282</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C103">
-        <v>0.213</v>
+        <v>0.228</v>
       </c>
       <c r="D103">
-        <v>0.29</v>
+        <v>0.268</v>
       </c>
       <c r="E103">
-        <v>0.305</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>43160</v>
+        <v>43313</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>0.226</v>
+        <v>0.223</v>
       </c>
       <c r="D104">
-        <v>0.301</v>
+        <v>0.269</v>
       </c>
       <c r="E104">
         <v>0.289</v>
@@ -2123,614 +2144,543 @@
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C105">
-        <v>0.23</v>
+        <v>0.232</v>
       </c>
       <c r="D105">
-        <v>0.3</v>
+        <v>0.251</v>
       </c>
       <c r="E105">
-        <v>0.296</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>43221</v>
+        <v>43374</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>0.223</v>
+        <v>0.234</v>
       </c>
       <c r="D106">
-        <v>0.281</v>
+        <v>0.27</v>
       </c>
       <c r="E106">
-        <v>0.313</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>43252</v>
+        <v>43405</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C107">
-        <v>0.23</v>
+        <v>0.229</v>
       </c>
       <c r="D107">
-        <v>0.274</v>
+        <v>0.254</v>
       </c>
       <c r="E107">
-        <v>0.314</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>43282</v>
+        <v>43435</v>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C108">
-        <v>0.228</v>
+        <v>0.249</v>
       </c>
       <c r="D108">
-        <v>0.268</v>
+        <v>0.264</v>
       </c>
       <c r="E108">
-        <v>0.301</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>43313</v>
+        <v>43466</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>0.223</v>
+        <v>0.254</v>
       </c>
       <c r="D109">
-        <v>0.269</v>
+        <v>0.272</v>
       </c>
       <c r="E109">
-        <v>0.289</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>43344</v>
+        <v>43497</v>
       </c>
       <c r="B110">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>0.232</v>
+        <v>0.248</v>
       </c>
       <c r="D110">
-        <v>0.251</v>
+        <v>0.262</v>
       </c>
       <c r="E110">
-        <v>0.293</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>43374</v>
+        <v>43525</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="D111">
-        <v>0.27</v>
+        <v>0.269</v>
       </c>
       <c r="E111">
-        <v>0.294</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>43405</v>
+        <v>43556</v>
       </c>
       <c r="B112">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>0.229</v>
+        <v>0.239</v>
       </c>
       <c r="D112">
-        <v>0.254</v>
+        <v>0.285</v>
       </c>
       <c r="E112">
-        <v>0.29</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>43435</v>
+        <v>43586</v>
       </c>
       <c r="B113">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>0.249</v>
+        <v>0.245</v>
       </c>
       <c r="D113">
-        <v>0.264</v>
+        <v>0.29</v>
       </c>
       <c r="E113">
-        <v>0.287</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>43466</v>
+        <v>43617</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C114">
-        <v>0.254</v>
+        <v>0.195</v>
       </c>
       <c r="D114">
-        <v>0.272</v>
+        <v>0.218</v>
       </c>
       <c r="E114">
-        <v>0.266</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>43497</v>
+        <v>43647</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>0.248</v>
+        <v>0.199</v>
       </c>
       <c r="D115">
-        <v>0.262</v>
+        <v>0.228</v>
       </c>
       <c r="E115">
-        <v>0.283</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>43525</v>
+        <v>43678</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C116">
-        <v>0.232</v>
+        <v>0.192</v>
       </c>
       <c r="D116">
-        <v>0.269</v>
+        <v>0.238</v>
       </c>
       <c r="E116">
-        <v>0.277</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>43556</v>
+        <v>43709</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C117">
-        <v>0.239</v>
+        <v>0.197</v>
       </c>
       <c r="D117">
-        <v>0.285</v>
+        <v>0.258</v>
       </c>
       <c r="E117">
-        <v>0.305</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>43586</v>
+        <v>43739</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C118">
-        <v>0.245</v>
+        <v>0.179</v>
       </c>
       <c r="D118">
-        <v>0.29</v>
+        <v>0.228</v>
       </c>
       <c r="E118">
-        <v>0.303</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>43617</v>
+        <v>43770</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C119">
-        <v>0.195</v>
+        <v>0.184</v>
       </c>
       <c r="D119">
-        <v>0.218</v>
+        <v>0.223</v>
       </c>
       <c r="E119">
-        <v>0.336</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>43647</v>
+        <v>43800</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C120">
-        <v>0.199</v>
+        <v>0.179</v>
       </c>
       <c r="D120">
-        <v>0.228</v>
+        <v>0.222</v>
       </c>
       <c r="E120">
-        <v>0.314</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>43678</v>
+        <v>43831</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>0.192</v>
+        <v>0.143</v>
       </c>
       <c r="D121">
-        <v>0.238</v>
+        <v>0.202</v>
       </c>
       <c r="E121">
-        <v>0.327</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>43709</v>
+        <v>43862</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C122">
-        <v>0.197</v>
+        <v>0.138</v>
       </c>
       <c r="D122">
-        <v>0.258</v>
-      </c>
-      <c r="E122">
-        <v>0.337</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>43739</v>
+        <v>43891</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C123">
-        <v>0.179</v>
+        <v>0.163</v>
       </c>
       <c r="D123">
-        <v>0.228</v>
-      </c>
-      <c r="E123">
-        <v>0.355</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>43770</v>
+        <v>43922</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>0.184</v>
+        <v>0.192</v>
       </c>
       <c r="D124">
-        <v>0.223</v>
-      </c>
-      <c r="E124">
-        <v>0.341</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>43800</v>
+        <v>43952</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C125">
-        <v>0.179</v>
+        <v>0.197</v>
       </c>
       <c r="D125">
-        <v>0.222</v>
-      </c>
-      <c r="E125">
-        <v>0.209</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>43831</v>
+        <v>43983</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C126">
-        <v>0.143</v>
+        <v>0.191</v>
       </c>
       <c r="D126">
-        <v>0.202</v>
-      </c>
-      <c r="E126">
-        <v>0.116</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C127">
-        <v>0.138</v>
+        <v>0.216</v>
       </c>
       <c r="D127">
-        <v>0.202</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>43891</v>
+        <v>44044</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C128">
-        <v>0.163</v>
+        <v>0.215</v>
       </c>
       <c r="D128">
-        <v>0.215</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C129">
-        <v>0.192</v>
+        <v>0.219</v>
       </c>
       <c r="D129">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>43952</v>
+        <v>44105</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C130">
-        <v>0.197</v>
+        <v>0.215</v>
       </c>
       <c r="D130">
-        <v>0.252</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C131">
-        <v>0.191</v>
+        <v>0.221</v>
       </c>
       <c r="D131">
-        <v>0.256</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44013</v>
+        <v>44166</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C132">
-        <v>0.216</v>
+        <v>0.166</v>
       </c>
       <c r="D132">
-        <v>0.299</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44044</v>
+        <v>44197</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>0.215</v>
+        <v>0.143</v>
       </c>
       <c r="D133">
-        <v>0.283</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44075</v>
+        <v>44228</v>
       </c>
       <c r="B134">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C134">
-        <v>0.219</v>
+        <v>0.164</v>
       </c>
       <c r="D134">
-        <v>0.25</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44105</v>
+        <v>44256</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>0.215</v>
+        <v>0.17</v>
       </c>
       <c r="D135">
-        <v>0.272</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44136</v>
+        <v>44287</v>
       </c>
       <c r="B136">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C136">
-        <v>0.221</v>
+        <v>0.2</v>
       </c>
       <c r="D136">
-        <v>0.28</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>44166</v>
+        <v>44317</v>
       </c>
       <c r="B137">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C137">
-        <v>0.166</v>
+        <v>0.177</v>
       </c>
       <c r="D137">
-        <v>0.245</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>44197</v>
+        <v>44348</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C138">
-        <v>0.143</v>
+        <v>0.17</v>
       </c>
       <c r="D138">
-        <v>0.247</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>44228</v>
+        <v>44378</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C139">
-        <v>0.164</v>
+        <v>0.142</v>
       </c>
       <c r="D139">
-        <v>0.259</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2">
-        <v>44256</v>
-      </c>
-      <c r="B140">
-        <v>3</v>
-      </c>
-      <c r="C140">
-        <v>0.17</v>
-      </c>
-      <c r="D140">
-        <v>0.268</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2">
-        <v>44287</v>
-      </c>
-      <c r="B141">
-        <v>4</v>
-      </c>
-      <c r="C141">
-        <v>0.2</v>
-      </c>
-      <c r="D141">
-        <v>0.306</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2">
-        <v>44317</v>
-      </c>
-      <c r="B142">
-        <v>5</v>
-      </c>
-      <c r="C142">
-        <v>0.177</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2">
-        <v>44348</v>
-      </c>
-      <c r="B143">
-        <v>6</v>
-      </c>
-      <c r="C143">
-        <v>0.17</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
+        <v>0.286</v>
       </c>
     </row>
   </sheetData>
